--- a/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.logging.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF94FA25-D932-9B40-846B-B5C19102C3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EF321E-FD74-954C-B70E-6D35DEF5B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="63420" yWindow="1300" windowWidth="42400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -279,45 +279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ZERO-F.LOG.SYS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZERO-F.LOG.ACTIVITY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZERO-F.LOG.INTEGRATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.logging/sys.ui-config.json</t>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.logging/sys.lic-identifier.json</t>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.logging/sys.lic-menu.json</t>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.logging/activity.ui-config.json</t>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.logging/activity.lic-identifier.json</t>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.logging/activity.lic-menu.json</t>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.logging/integration.ui-config.json</t>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.logging/integration.lic-identifier.json</t>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.logging/integration.lic-menu.json</t>
-  </si>
-  <si>
     <t>ec037f7b-6082-41b8-ae54-131ed4bbfce5</t>
   </si>
   <si>
@@ -351,6 +312,54 @@
   </si>
   <si>
     <t>Z-FOUNDATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.LOG_SYS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.LOG_ACTIVITY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.LOG_INTEGRATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_SYS/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_SYS/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_SYS/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_ACTIVITY/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_ACTIVITY/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_ACTIVITY/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_INTEGRATION/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_INTEGRATION/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_INTEGRATION/lic-menu.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -850,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -859,13 +868,13 @@
     <col min="1" max="2" width="53.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="87.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="83.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -923,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -952,12 +961,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>19</v>
@@ -979,7 +988,7 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,7 +1124,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>A$5</f>
@@ -1125,26 +1134,26 @@
         <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F15" s="5">
         <v>1005</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>51</v>
@@ -1161,7 +1170,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" ref="B16:B17" si="0">A$5</f>
@@ -1171,26 +1180,26 @@
         <v>59</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F16" s="5">
         <v>1010</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>51</v>
@@ -1207,7 +1216,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1217,26 +1226,26 @@
         <v>60</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F17" s="5">
         <v>1015</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>51</v>

--- a/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.logging.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/modulat/zero-f.logging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EF321E-FD74-954C-B70E-6D35DEF5B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168E80E-2CEC-434F-AD36-01D0A2B68993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="63420" yWindow="1300" windowWidth="42400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>key</t>
   </si>
@@ -360,6 +360,30 @@
   </si>
   <si>
     <t>JSON:modulat/zero-f.logging/LOG_INTEGRATION/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c580c87e-4915-4d64-8476-0eda58bc2d6c</t>
+  </si>
+  <si>
+    <t>ZERO-F.LOG_WF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_WF/ui-config.json</t>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_WF/lic-identifier.json</t>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.logging/LOG_WF/lic-menu.json</t>
+  </si>
+  <si>
+    <t>BLOCK_LOG_WF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -857,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1173,7 +1197,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="8" t="str">
-        <f t="shared" ref="B16:B17" si="0">A$5</f>
+        <f t="shared" ref="B16:B18" si="0">A$5</f>
         <v>ec037f7b-6082-41b8-ae54-131ed4bbfce5</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1257,6 +1281,52 @@
         <v>53</v>
       </c>
       <c r="Q17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ec037f7b-6082-41b8-ae54-131ed4bbfce5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1020</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="8" t="s">
         <v>52</v>
       </c>
     </row>
